--- a/Documentation/References/03-Unit_Test_Cases-(132)-(Elearning management).xlsx
+++ b/Documentation/References/03-Unit_Test_Cases-(132)-(Elearning management).xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="169">
   <si>
     <t>Prepared By / Last Updated By</t>
   </si>
@@ -240,9 +240,6 @@
     <t>User Registration</t>
   </si>
   <si>
-    <t>The Default User will override the default user by giving his information in the user form.</t>
-  </si>
-  <si>
     <t>User Authentication</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
   </si>
   <si>
     <t>If credentials are authenticated, Role of the user should be provided from the database for registered user, which will redirect it to home page of: user, vendor, admin</t>
-  </si>
-  <si>
-    <t>FEA_1.3_1</t>
   </si>
   <si>
     <t>FEA_1.3_2</t>
@@ -626,6 +620,24 @@
   </si>
   <si>
     <t>Adding Validations to each field</t>
+  </si>
+  <si>
+    <t>Form should not be able to be submitted unless all input fields are valid</t>
+  </si>
+  <si>
+    <t>Form cannot be submitted unless all input fields are valid</t>
+  </si>
+  <si>
+    <t>FEA_3_3</t>
+  </si>
+  <si>
+    <t>User Services</t>
+  </si>
+  <si>
+    <t>getUser(String id) should return User object if user exists or else throw UserNotFoundException</t>
+  </si>
+  <si>
+    <t>getUser(String id)  returns User object if user exists or else throw UserNotFoundException</t>
   </si>
 </sst>
 </file>
@@ -781,7 +793,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,12 +851,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,7 +1189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1386,52 +1392,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1445,17 +1405,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1468,35 +1417,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1629,24 +1554,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1676,6 +1583,73 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3435,64 +3409,64 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="125"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="126" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="128"/>
+      <c r="B8" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="125"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="131"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
     </row>
     <row r="12" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="132"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="134"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
@@ -3553,12 +3527,12 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4059,25 +4033,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="41" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="136" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
@@ -4102,68 +4076,68 @@
       <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
     </row>
     <row r="7" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
     </row>
     <row r="9" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="147"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="122"/>
     </row>
     <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="125"/>
     </row>
     <row r="11" spans="1:4" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
     </row>
     <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
     </row>
     <row r="13" spans="1:4" s="48" customFormat="1" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -4227,7 +4201,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4702,32 +4676,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="56" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:25" s="62" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
     </row>
     <row r="3" spans="1:25" s="67" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -4786,44 +4760,44 @@
       <c r="J4" s="84"/>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="135"/>
+      <c r="V4" s="135"/>
+      <c r="W4" s="135"/>
       <c r="X4" s="68"/>
       <c r="Y4" s="68"/>
     </row>
     <row r="5" spans="1:25" s="58" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="E5" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="106" t="s">
-        <v>94</v>
+      <c r="F5" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>92</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
@@ -4844,29 +4818,29 @@
       <c r="Y5" s="61"/>
     </row>
     <row r="6" spans="1:25" s="58" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="E6" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="106" t="s">
-        <v>94</v>
+      <c r="F6" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>92</v>
       </c>
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
@@ -4887,29 +4861,29 @@
       <c r="Y6" s="61"/>
     </row>
     <row r="7" spans="1:25" s="58" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="E7" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="106" t="s">
-        <v>94</v>
+      <c r="F7" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>92</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
@@ -4930,1261 +4904,1261 @@
       <c r="Y7" s="61"/>
     </row>
     <row r="8" spans="1:25" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B10" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="88" t="s">
+      <c r="C10" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="155"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="155"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="155"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="154" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="155"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="154" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="155"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="157"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="C24" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="160" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="160" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="151" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="87"/>
+      <c r="N26" s="85"/>
+    </row>
+    <row r="27" spans="1:14" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="161" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="87"/>
+      <c r="N27" s="86"/>
+    </row>
+    <row r="28" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="94" t="s">
+      <c r="C28" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="149" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="85" t="s">
+      <c r="E28" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="87"/>
+      <c r="N28" s="88"/>
+    </row>
+    <row r="29" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="85" t="s">
+      <c r="C29" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="M29" s="87"/>
+      <c r="N29" s="89"/>
+    </row>
+    <row r="30" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="164" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="85" t="s">
+      <c r="C30" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="160" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="85" t="s">
+      <c r="C31" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="85" t="s">
+      <c r="C32" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="85" t="s">
+      <c r="C33" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="C34" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+      <c r="F34" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="101"/>
-      <c r="N26" s="99"/>
-    </row>
-    <row r="27" spans="1:14" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="97" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="101"/>
-      <c r="N27" s="100"/>
-    </row>
-    <row r="28" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="M28" s="101"/>
-      <c r="N28" s="102"/>
-    </row>
-    <row r="29" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="101"/>
-      <c r="N29" s="103"/>
-    </row>
-    <row r="30" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+      <c r="B35" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+      <c r="C36" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="97" t="s">
+      <c r="E36" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="160" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="160" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="151" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="151" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="160" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="159" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="160" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="159" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="159" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="106" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="B45" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="164" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93" t="s">
+      <c r="E45" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="160" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98" t="s">
+      <c r="E47" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="160" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="C48" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="160" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="159" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="166" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="167" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="167" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="106" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="93" t="s">
+      <c r="B52" s="167" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="167" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="B53" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="115" t="s">
+      <c r="E53" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="160" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="116" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="H52" s="106" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
+      <c r="C54" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="112" t="s">
+      <c r="E54" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="160" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="93" t="s">
+      <c r="E55" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="92" t="s">
+      <c r="B56" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="109" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="109" t="s">
-        <v>94</v>
+      <c r="E56" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="92" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6647,13 +6621,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="75"/>
@@ -6682,37 +6656,37 @@
       <c r="A5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="176"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="172"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="141"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="168"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
@@ -6727,46 +6701,46 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="168"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="168"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="81"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="168"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="169"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="172"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="168"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="82" t="s">
         <v>38</v>
       </c>
@@ -6781,28 +6755,28 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="168"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="168"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="168"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="169"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="81"/>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
